--- a/evaluations/MMLU_Anatomy/zeroshot-COT/gaokerena-r1.0/gao_experiment_no5.xlsx
+++ b/evaluations/MMLU_Anatomy/zeroshot-COT/gaokerena-r1.0/gao_experiment_no5.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29401"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35332434-8901-4399-908C-C723708F64E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28F66E51-9C80-4F5A-8716-726C37999661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
